--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2022-09-12.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2022-09-12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="29">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -97,16 +97,13 @@
     <t>Gaïa promenade</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Particuliers</t>
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>Jo le Taxi</t>
@@ -3162,7 +3159,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3243,7 +3240,7 @@
     <row r="4" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -3376,7 +3373,7 @@
     <row r="11" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A11" s="6"/>
       <c r="B11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -3450,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3476,7 +3473,7 @@
     <row r="16" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -3609,7 +3606,7 @@
     <row r="23" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A23" s="6"/>
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -3708,7 +3705,7 @@
     <row r="28" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A28" s="6"/>
       <c r="B28" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
@@ -3841,7 +3838,7 @@
     <row r="35" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A35" s="6"/>
       <c r="B35" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="8">
         <v>0</v>
@@ -3875,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3942,7 +3939,7 @@
     <row r="40" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A40" s="6"/>
       <c r="B40" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C40" s="8">
         <v>1</v>
@@ -4075,7 +4072,7 @@
     <row r="47" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A47" s="6"/>
       <c r="B47" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="8">
         <v>0</v>
@@ -4173,7 +4170,7 @@
     <row r="52" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A52" s="6"/>
       <c r="B52" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C52" s="8">
         <v>1</v>
@@ -4306,7 +4303,7 @@
     <row r="59" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A59" s="6"/>
       <c r="B59" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="8">
         <v>0</v>
@@ -4340,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4405,7 +4402,7 @@
     <row r="64" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A64" s="6"/>
       <c r="B64" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C64" s="8">
         <v>0</v>
@@ -4538,7 +4535,7 @@
     <row r="71" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A71" s="6"/>
       <c r="B71" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" s="8">
         <v>0</v>
@@ -4635,7 +4632,7 @@
     <row r="76" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A76" s="6"/>
       <c r="B76" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C76" s="8">
         <v>1</v>
@@ -4768,7 +4765,7 @@
     <row r="83" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A83" s="6"/>
       <c r="B83" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" s="8">
         <v>0</v>
@@ -4866,7 +4863,7 @@
     <row r="88" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A88" s="6"/>
       <c r="B88" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C88" s="8">
         <v>0</v>
@@ -4999,7 +4996,7 @@
     <row r="95" s="2" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="6"/>
       <c r="B95" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95" s="8">
         <v>0</v>
